--- a/data/2018.xlsx
+++ b/data/2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\map_challenge\data\정당회계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quarto\map_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB39376-3950-45A9-9D9C-8B1F78A61275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15DF65-15FD-4D12-8C4B-85249E56B23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
+    <workbookView xWindow="1335" yWindow="1170" windowWidth="24225" windowHeight="14235" activeTab="2" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="page01" sheetId="1" r:id="rId1"/>
@@ -640,20 +640,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1F36E9-172E-4CD9-9FF3-674B6648C91E}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -723,7 +723,7 @@
         <v>6834</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>8066</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1230,19 +1230,19 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -1782,26 +1782,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD5105-5CED-4F74-97DF-790D750DB47A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>46735</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1869,8 +1869,8 @@
       <c r="C3" s="3">
         <v>5341</v>
       </c>
-      <c r="D3" s="2">
-        <v>37.613999999999997</v>
+      <c r="D3" s="3">
+        <v>37614</v>
       </c>
       <c r="E3" s="3">
         <v>1269</v>
@@ -1888,7 +1888,7 @@
         <v>17172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
@@ -2093,18 +2093,18 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>23967</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>10705</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
